--- a/exports/kitchen_2025-06-19.xlsx
+++ b/exports/kitchen_2025-06-19.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Kitchen Summary" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Kitchen" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -17,7 +17,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -28,6 +28,10 @@
     <font>
       <b val="1"/>
       <sz val="14"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <sz val="12"/>
     </font>
     <font>
       <b val="1"/>
@@ -47,12 +51,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00F2F2F2"/>
+        <fgColor rgb="00FFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FFFFFF"/>
+        <fgColor rgb="00F2F2F2"/>
       </patternFill>
     </fill>
   </fills>
@@ -68,12 +72,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -447,7 +454,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:C40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -455,292 +462,486 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="30" customWidth="1" min="1" max="1"/>
-    <col width="11" customWidth="1" min="2" max="2"/>
-    <col width="6" customWidth="1" min="3" max="3"/>
-    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="12" customWidth="1" min="1" max="1"/>
+    <col width="37" customWidth="1" min="2" max="2"/>
+    <col width="11" customWidth="1" min="3" max="3"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Kitchen Summary – 2025-06-19</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="inlineStr">
-        <is>
-          <t>Type</t>
-        </is>
-      </c>
-      <c r="B2" s="2" t="inlineStr">
-        <is>
-          <t>Special</t>
-        </is>
-      </c>
-      <c r="C2" s="2" t="inlineStr">
-        <is>
-          <t>Size</t>
-        </is>
-      </c>
-      <c r="D2" s="2" t="inlineStr">
-        <is>
-          <t>Count</t>
-        </is>
-      </c>
-    </row>
+          <t>2025-06-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="2"/>
     <row r="3">
-      <c r="A3" s="3" t="inlineStr">
+      <c r="A3" s="2" t="inlineStr">
+        <is>
+          <t>Méret: S</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="inlineStr">
+        <is>
+          <t>Étkezés</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>Spec.</t>
+        </is>
+      </c>
+      <c r="C4" s="3" t="inlineStr">
+        <is>
+          <t>Mennyiség</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="4" t="inlineStr">
         <is>
           <t>ebed</t>
         </is>
       </c>
-      <c r="B3" s="3" t="inlineStr"/>
-      <c r="C3" s="3" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="D3" s="3" t="n">
+      <c r="B5" s="4" t="inlineStr"/>
+      <c r="C5" s="4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="5" t="inlineStr">
+        <is>
+          <t>ebed</t>
+        </is>
+      </c>
+      <c r="B6" s="5" t="inlineStr">
+        <is>
+          <t>tej mentes</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="4" t="inlineStr">
+        <is>
+          <t>reggeli</t>
+        </is>
+      </c>
+      <c r="B7" s="4" t="inlineStr"/>
+      <c r="C7" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="5" t="inlineStr">
+        <is>
+          <t>reggeli</t>
+        </is>
+      </c>
+      <c r="B8" s="5" t="inlineStr">
+        <is>
+          <t>tej mentes</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="4" t="inlineStr">
+        <is>
+          <t>reggeli</t>
+        </is>
+      </c>
+      <c r="B9" s="4" t="inlineStr">
+        <is>
+          <t>tejmentes</t>
+        </is>
+      </c>
+      <c r="C9" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="5" t="inlineStr">
+        <is>
+          <t>snack</t>
+        </is>
+      </c>
+      <c r="B10" s="5" t="inlineStr"/>
+      <c r="C10" s="5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="4" t="inlineStr">
+        <is>
+          <t>snack</t>
+        </is>
+      </c>
+      <c r="B11" s="4" t="inlineStr">
+        <is>
+          <t>tej mentes</t>
+        </is>
+      </c>
+      <c r="C11" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="5" t="inlineStr">
+        <is>
+          <t>snack</t>
+        </is>
+      </c>
+      <c r="B12" s="5" t="inlineStr">
+        <is>
+          <t>tejmentes</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="4" t="inlineStr">
+        <is>
+          <t>vacsora</t>
+        </is>
+      </c>
+      <c r="B13" s="4" t="inlineStr"/>
+      <c r="C13" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="5" t="inlineStr">
+        <is>
+          <t>vacsora</t>
+        </is>
+      </c>
+      <c r="B14" s="5" t="inlineStr">
+        <is>
+          <t>vega</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="4" t="inlineStr">
+        <is>
+          <t>vacsora</t>
+        </is>
+      </c>
+      <c r="B15" s="4" t="inlineStr">
+        <is>
+          <t>vega tej mentes</t>
+        </is>
+      </c>
+      <c r="C15" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16"/>
+    <row r="17">
+      <c r="A17" s="2" t="inlineStr">
+        <is>
+          <t>Méret: M</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="3" t="inlineStr">
+        <is>
+          <t>Étkezés</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Spec.</t>
+        </is>
+      </c>
+      <c r="C18" s="3" t="inlineStr">
+        <is>
+          <t>Mennyiség</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="4" t="inlineStr">
+        <is>
+          <t>ebed</t>
+        </is>
+      </c>
+      <c r="B19" s="4" t="inlineStr"/>
+      <c r="C19" s="4" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="4" t="inlineStr">
+    <row r="20">
+      <c r="A20" s="5" t="inlineStr">
         <is>
           <t>ebed</t>
         </is>
       </c>
-      <c r="B4" s="4" t="inlineStr"/>
-      <c r="C4" s="4" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="D4" s="4" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="3" t="inlineStr">
+      <c r="B20" s="5" t="inlineStr">
+        <is>
+          <t>vega</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="4" t="inlineStr">
+        <is>
+          <t>reggeli</t>
+        </is>
+      </c>
+      <c r="B21" s="4" t="inlineStr"/>
+      <c r="C21" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="5" t="inlineStr">
+        <is>
+          <t>snack</t>
+        </is>
+      </c>
+      <c r="B22" s="5" t="inlineStr"/>
+      <c r="C22" s="5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="4" t="inlineStr">
+        <is>
+          <t>snack</t>
+        </is>
+      </c>
+      <c r="B23" s="4" t="inlineStr">
+        <is>
+          <t>tejmentes</t>
+        </is>
+      </c>
+      <c r="C23" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="5" t="inlineStr">
+        <is>
+          <t>vacsora</t>
+        </is>
+      </c>
+      <c r="B24" s="5" t="inlineStr"/>
+      <c r="C24" s="5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="4" t="inlineStr">
+        <is>
+          <t>vacsora</t>
+        </is>
+      </c>
+      <c r="B25" s="4" t="inlineStr">
+        <is>
+          <t>vega</t>
+        </is>
+      </c>
+      <c r="C25" s="4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="5" t="inlineStr">
+        <is>
+          <t>vacsora</t>
+        </is>
+      </c>
+      <c r="B26" s="5" t="inlineStr">
+        <is>
+          <t>vega tej-mentes</t>
+        </is>
+      </c>
+      <c r="C26" s="5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27"/>
+    <row r="28">
+      <c r="A28" s="2" t="inlineStr">
+        <is>
+          <t>Méret: L</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="3" t="inlineStr">
+        <is>
+          <t>Étkezés</t>
+        </is>
+      </c>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>Spec.</t>
+        </is>
+      </c>
+      <c r="C29" s="3" t="inlineStr">
+        <is>
+          <t>Mennyiség</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="4" t="inlineStr">
         <is>
           <t>ebed</t>
         </is>
       </c>
-      <c r="B5" s="3" t="inlineStr">
+      <c r="B30" s="4" t="inlineStr">
+        <is>
+          <t>tojas-paprika-hal-glut-mentes</t>
+        </is>
+      </c>
+      <c r="C30" s="4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="5" t="inlineStr">
+        <is>
+          <t>reggeli</t>
+        </is>
+      </c>
+      <c r="B31" s="5" t="inlineStr">
+        <is>
+          <t>sajt-paprika-paradicsom-tojas-ments</t>
+        </is>
+      </c>
+      <c r="C31" s="5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="4" t="inlineStr">
+        <is>
+          <t>snack</t>
+        </is>
+      </c>
+      <c r="B32" s="4" t="inlineStr">
+        <is>
+          <t>hal-tojas-tej-mentes</t>
+        </is>
+      </c>
+      <c r="C32" s="4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="5" t="inlineStr">
+        <is>
+          <t>vacsora</t>
+        </is>
+      </c>
+      <c r="B33" s="5" t="inlineStr">
+        <is>
+          <t>vega-glut-tojas-tej-mentes</t>
+        </is>
+      </c>
+      <c r="C33" s="5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34"/>
+    <row r="35">
+      <c r="A35" s="2" t="inlineStr">
+        <is>
+          <t>Méret: XL</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="3" t="inlineStr">
+        <is>
+          <t>Étkezés</t>
+        </is>
+      </c>
+      <c r="B36" s="3" t="inlineStr">
+        <is>
+          <t>Spec.</t>
+        </is>
+      </c>
+      <c r="C36" s="3" t="inlineStr">
+        <is>
+          <t>Mennyiség</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="4" t="inlineStr">
+        <is>
+          <t>ebed</t>
+        </is>
+      </c>
+      <c r="B37" s="4" t="inlineStr"/>
+      <c r="C37" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="5" t="inlineStr">
+        <is>
+          <t>reggeli</t>
+        </is>
+      </c>
+      <c r="B38" s="5" t="inlineStr"/>
+      <c r="C38" s="5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="4" t="inlineStr">
+        <is>
+          <t>snack</t>
+        </is>
+      </c>
+      <c r="B39" s="4" t="inlineStr"/>
+      <c r="C39" s="4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="5" t="inlineStr">
+        <is>
+          <t>vacsora</t>
+        </is>
+      </c>
+      <c r="B40" s="5" t="inlineStr">
         <is>
           <t>vega</t>
         </is>
       </c>
-      <c r="C5" s="3" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="D5" s="3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="4" t="inlineStr">
-        <is>
-          <t>reggeli</t>
-        </is>
-      </c>
-      <c r="B6" s="4" t="inlineStr"/>
-      <c r="C6" s="4" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="3" t="inlineStr">
-        <is>
-          <t>reggeli</t>
-        </is>
-      </c>
-      <c r="B7" s="3" t="inlineStr"/>
-      <c r="C7" s="3" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="D7" s="3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="4" t="inlineStr">
-        <is>
-          <t>reggeli</t>
-        </is>
-      </c>
-      <c r="B8" s="4" t="inlineStr">
-        <is>
-          <t>tejmentes</t>
-        </is>
-      </c>
-      <c r="C8" s="4" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="D8" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="3" t="inlineStr">
-        <is>
-          <t>snack</t>
-        </is>
-      </c>
-      <c r="B9" s="3" t="inlineStr"/>
-      <c r="C9" s="3" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="D9" s="3" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="4" t="inlineStr">
-        <is>
-          <t>snack</t>
-        </is>
-      </c>
-      <c r="B10" s="4" t="inlineStr"/>
-      <c r="C10" s="4" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="D10" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="3" t="inlineStr">
-        <is>
-          <t>snack</t>
-        </is>
-      </c>
-      <c r="B11" s="3" t="inlineStr">
-        <is>
-          <t>tejmentes</t>
-        </is>
-      </c>
-      <c r="C11" s="3" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="D11" s="3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="4" t="inlineStr">
-        <is>
-          <t>snack</t>
-        </is>
-      </c>
-      <c r="B12" s="4" t="inlineStr">
-        <is>
-          <t>tejmentes</t>
-        </is>
-      </c>
-      <c r="C12" s="4" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="D12" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="3" t="inlineStr">
-        <is>
-          <t>vacsora</t>
-        </is>
-      </c>
-      <c r="B13" s="3" t="inlineStr"/>
-      <c r="C13" s="3" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="D13" s="3" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="4" t="inlineStr">
-        <is>
-          <t>vacsora</t>
-        </is>
-      </c>
-      <c r="B14" s="4" t="inlineStr"/>
-      <c r="C14" s="4" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="D14" s="4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="3" t="inlineStr">
-        <is>
-          <t>vacsora</t>
-        </is>
-      </c>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>vega</t>
-        </is>
-      </c>
-      <c r="C15" s="3" t="inlineStr">
-        <is>
-          <t>S</t>
-        </is>
-      </c>
-      <c r="D15" s="3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="4" t="inlineStr">
-        <is>
-          <t>vacsora</t>
-        </is>
-      </c>
-      <c r="B16" s="4" t="inlineStr">
-        <is>
-          <t>vega</t>
-        </is>
-      </c>
-      <c r="C16" s="4" t="inlineStr">
-        <is>
-          <t>M</t>
-        </is>
-      </c>
-      <c r="D16" s="4" t="n">
-        <v>3</v>
+      <c r="C40" s="5" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:D1"/>
+  <mergeCells count="5">
+    <mergeCell ref="A28:C28"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="A17:C17"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A35:C35"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
